--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2066003.247293646</v>
+        <v>-2068579.568774887</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12610011.71276486</v>
+        <v>12610011.71276485</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>139.8060972184445</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>20.29515656310126</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>136.9762902620785</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>37.48097701436299</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>125.8038519987751</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>160.0317554412384</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>203.1977700471494</v>
+        <v>174.1585076791644</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>50.84399365306177</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>295.4063084024577</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>207.8966713812325</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>105.1820732698679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400636</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="H22" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.53911114974</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>905.5765942093287</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>547.3108956025783</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213862</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4504,34 +4504,34 @@
         <v>947.9914432975877</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261252</v>
+        <v>1055.037596261258</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413767</v>
+        <v>1132.647892413773</v>
       </c>
       <c r="R4" t="n">
-        <v>1132.647892413767</v>
+        <v>1132.647892413773</v>
       </c>
       <c r="S4" t="n">
-        <v>1132.647892413767</v>
+        <v>1132.647892413773</v>
       </c>
       <c r="T4" t="n">
-        <v>994.2880032601528</v>
+        <v>910.8812769832986</v>
       </c>
       <c r="U4" t="n">
-        <v>994.2880032601528</v>
+        <v>621.7784101089421</v>
       </c>
       <c r="V4" t="n">
-        <v>994.2880032601528</v>
+        <v>621.7784101089421</v>
       </c>
       <c r="W4" t="n">
-        <v>994.2880032601528</v>
+        <v>332.3612400719816</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>104.3716891739642</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1015.867262682233</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>657.6015640754824</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>657.6015640754824</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>650.656063326279</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>235.5836131712754</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3163.957583789738</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3163.957583789738</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>3163.957583789738</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1722.044275313594</v>
+        <v>1469.860522148438</v>
       </c>
       <c r="U7" t="n">
-        <v>1722.044275313594</v>
+        <v>1180.757655274082</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>926.0731670681948</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2710.947195012955</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836216</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836216</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>692.4075010392942</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395904</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>282.1478848544703</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703094</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>366.9636532421608</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>199.7675539570408</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,10 +6601,10 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6680,55 +6680,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,40 +6838,40 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,19 +7588,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404955697</v>
+        <v>8.176919404960984</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>242.1242728538173</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>307.4571019070336</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22756,22 +22756,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>82.57265901409073</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>181.1036763377318</v>
       </c>
     </row>
     <row r="5">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>35.11263957635599</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>32.15184655856419</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="H22" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>66311.33934030095</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.485941553372</v>
+        <v>3287.485941553439</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493627</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493627</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1373654.832890238</v>
+        <v>-1374049.653831392</v>
       </c>
       <c r="C6" t="n">
-        <v>-118623.606458159</v>
+        <v>-118623.6064581591</v>
       </c>
       <c r="D6" t="n">
         <v>-118623.606458159</v>
       </c>
       <c r="E6" t="n">
-        <v>-359427.1397741044</v>
+        <v>-359461.8776995402</v>
       </c>
       <c r="F6" t="n">
-        <v>-34014.67796674928</v>
+        <v>-34049.41589218499</v>
       </c>
       <c r="G6" t="n">
-        <v>-34014.67796674928</v>
+        <v>-34049.41589218499</v>
       </c>
       <c r="H6" t="n">
-        <v>-34014.67796674925</v>
+        <v>-34049.41589218494</v>
       </c>
       <c r="I6" t="n">
-        <v>-34014.67796674927</v>
+        <v>-34049.41589218492</v>
       </c>
       <c r="J6" t="n">
-        <v>-251545.8803640268</v>
+        <v>-251580.6182894625</v>
       </c>
       <c r="K6" t="n">
-        <v>-62085.32423605504</v>
+        <v>-62085.32423605506</v>
       </c>
       <c r="L6" t="n">
-        <v>-42657.60624242324</v>
+        <v>-42657.6062424233</v>
       </c>
       <c r="M6" t="n">
-        <v>-127712.634177935</v>
+        <v>-127712.6341779351</v>
       </c>
       <c r="N6" t="n">
-        <v>-42657.60624242324</v>
+        <v>-42657.6062424232</v>
       </c>
       <c r="O6" t="n">
-        <v>-42657.60624242324</v>
+        <v>-42657.60624242325</v>
       </c>
       <c r="P6" t="n">
-        <v>-62085.32423605506</v>
+        <v>-62085.32423605496</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>168.8039123885453</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>43.88621469838171</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>16.35117922901983</v>
+        <v>45.39044159700478</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>331.8898480104188</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>74.32479227601129</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.6879819708623</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34147,13 +34147,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34872,7 +34872,7 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>108.127427236025</v>
+        <v>108.1274272360303</v>
       </c>
       <c r="Q4" t="n">
         <v>78.39423853789366</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317795</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
